--- a/data/README_sources.xlsx
+++ b/data/README_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/canada_metal_sustainability_db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1205" documentId="8_{92941A98-A6B5-4821-9974-063115F9198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB9029D6-2A05-4BE0-A996-68AB90C2678A}"/>
+  <xr:revisionPtr revIDLastSave="1213" documentId="8_{92941A98-A6B5-4821-9974-063115F9198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F1EFE90-F227-4396-9BF8-85AEF4DA99B5}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="1319">
   <si>
     <t>facility_name</t>
   </si>
@@ -4231,6 +4231,14 @@
   </si>
   <si>
     <t>Specifies material category and type of material stream. Possible entries: Ore mined, Ore processed, Concentrate, Intermediate Metal (for ex doré), Refined metal, By-product recovered, Slag</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>ECCC’s Climate Research Division (CRD) and the Pacific Climate Impacts Consortium (PCIC) , Canadian Downscaled Climate Scenarios–
+Univariate method from CMIP6 (CanDCS-
+U6)</t>
   </si>
 </sst>
 </file>
@@ -4767,8 +4775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D834FF8E-1AA9-4F88-81FF-BC33C80F70D4}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5278,7 +5286,16 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1016</v>
+      </c>
       <c r="F25" s="16" t="s">
         <v>1096</v>
       </c>
@@ -7102,7 +7119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A266F31-948F-4289-8E19-B4E2F9340875}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
